--- a/results/All_metrics_unified.xlsx
+++ b/results/All_metrics_unified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddo\DL_stack\Halimeda\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEED1D70-AE93-47FE-A9E9-C80A0C11915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCBEBBB-E1DB-460A-BA1B-54B7AB6F0B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>SS</t>
   </si>
   <si>
-    <t>Weghted(best so far)</t>
-  </si>
-  <si>
     <t>w_merge_test_0_85</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>low3_da</t>
+  </si>
+  <si>
+    <t>Weghted</t>
   </si>
 </sst>
 </file>
@@ -201,9 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +228,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +516,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,297 +527,297 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.90472312399999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.80885640299999995</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.87814700700000003</v>
+      </c>
+      <c r="G4" s="3">
+        <v>8.4460326000000002E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.84207871199999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.87327624400000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.74191291000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.86166127299999995</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.121996432</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.79731593300000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.86184566182301459</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.70696079259750633</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.89224208812587147</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.15052577963383809</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.78886823105895765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.76370819349934282</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.85606441697538438</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.2201591416596855</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.506591979292757E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.35024397251762263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>127</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.90472312399999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.80885640299999995</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.87814700700000003</v>
-      </c>
-      <c r="G4" s="4">
-        <v>8.4460326000000002E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.84207871199999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.87327624400000003</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.74191291000000004</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.86166127299999995</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.121996432</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.79731593300000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C12" s="2">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.98166065216064458</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.70932715160560456</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.80167531834757666</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.1848088001260349E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.75267920653183651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C13" s="2">
         <v>123</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.86184566182301459</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.70696079259750633</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.89224208812587147</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.15052577963383809</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.78886823105895765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="D13" s="2">
+        <v>0.85628743699999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.83985749799999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.90213645099999995</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.19593690799999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.86988368999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12">
         <v>43</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.76370819349934282</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.85606441697538438</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.2201591416596855</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.506591979292757E-2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.35024397251762263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>43</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.98166065216064458</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.70932715160560456</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.80167531834757666</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.1848088001260349E-2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.75267920653183651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
-        <v>123</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.85628743699999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.83985749799999998</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.90213645099999995</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.19593690799999999</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.86988368999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="D14" s="12">
+        <v>0.98088150808255969</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.79963482401839558</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.78410643574330285</v>
+      </c>
+      <c r="G14" s="12">
+        <v>9.5519325990262773E-3</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.79179450291221209</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13">
-        <v>43</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.98088150808255969</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.79963482401839558</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.78410643574330285</v>
-      </c>
-      <c r="G14" s="13">
-        <v>9.5519325990262773E-3</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.79179450291221209</v>
-      </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>75.2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0.98411681723726718</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.75944252207719143</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0.79008339457407994</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>8.910866317205909E-3</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>0.77394785093323581</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="12"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="12"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="12"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="12"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H7">
